--- a/NEW HR/SABULAAN, MARIA LEAH.xlsx
+++ b/NEW HR/SABULAAN, MARIA LEAH.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>8/22-23/2023</t>
+  </si>
+  <si>
+    <t>9/25-29/2023</t>
+  </si>
+  <si>
+    <t>10/23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -664,17 +670,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -684,6 +687,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,7 +1220,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1263,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1327,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1387,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1453,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1516,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1614,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,7 +1673,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1738,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1781,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1856,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2042,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2108,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2166,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2232,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,7 +2288,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2363,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2406,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2472,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,7 +2528,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,7 +3006,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,14 +3036,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3048,14 +3054,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3068,16 +3074,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3103,18 +3109,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3161,7 +3167,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>62.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3171,7 +3177,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>87.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4653,13 +4659,15 @@
         <v>45139</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4667,15 +4675,19 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4683,15 +4695,19 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4699,7 +4715,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4715,7 +4733,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45261</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4972,17 +4992,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5018,9 +5038,9 @@
   <dimension ref="A2:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5050,14 +5070,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5068,14 +5088,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5088,16 +5108,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5123,18 +5143,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5181,7 +5201,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.375</v>
+        <v>4.375</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5191,7 +5211,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>13.274999999999999</v>
+        <v>7.2749999999999986</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6147,8 +6167,12 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C53" s="13"/>
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
@@ -6157,16 +6181,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H53" s="39"/>
+      <c r="H53" s="39">
+        <v>5</v>
+      </c>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="39"/>
+      <c r="D54" s="39">
+        <v>2</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13" t="str">
@@ -6176,11 +6210,15 @@
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
+      <c r="K54" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
-      <c r="B55" s="20"/>
+      <c r="B55" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
@@ -6189,10 +6227,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H55" s="39"/>
+      <c r="H55" s="39">
+        <v>1</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20"/>
+      <c r="K55" s="49">
+        <v>45224</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
